--- a/excel/template-journal02.04.xlsx
+++ b/excel/template-journal02.04.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EFB487C8-5DFE-4366-BB08-1FDCBA007B38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F08C21-33A8-4A0D-8314-DE4909020ED6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,8 +221,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,8 +230,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -528,21 +528,21 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -635,7 +635,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4"/>
@@ -651,7 +651,7 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4"/>
@@ -667,7 +667,7 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4"/>
@@ -683,7 +683,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4"/>
@@ -699,7 +699,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4"/>
@@ -715,7 +715,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="4"/>
@@ -731,7 +731,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4"/>
@@ -747,7 +747,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4"/>
@@ -781,27 +781,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
@@ -818,6 +797,27 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
